--- a/YXL_통합.xlsx
+++ b/YXL_통합.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjana\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AD44BB-4EE2-4EE2-9EB9-B79E986AF560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECB5AB6-9FF4-44C5-8686-7BFB99C9BC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="16470" windowHeight="13455" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="누적기여도" sheetId="13" r:id="rId1"/>
@@ -383,24 +383,6 @@
     <t>하쥬빈</t>
   </si>
   <si>
-    <t>직급전(11.5)</t>
-  </si>
-  <si>
-    <t>1회차(11.11)</t>
-  </si>
-  <si>
-    <t>2회차(11.17)</t>
-  </si>
-  <si>
-    <t>3회차(11.21)</t>
-  </si>
-  <si>
-    <t>4회차(11.26)</t>
-  </si>
-  <si>
-    <t>5회차(11.28)</t>
-  </si>
-  <si>
     <t>순위</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -442,6 +424,30 @@
   </si>
   <si>
     <t>37</t>
+  </si>
+  <si>
+    <t>직급전</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회차</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2회차</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3회차</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4회차</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5회차</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1164,16 +1170,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1361,7 +1367,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C17" s="35">
         <v>4562135</v>
@@ -1502,7 +1508,7 @@
     </row>
     <row r="29" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B29" s="34" t="s">
         <v>68</v>
@@ -1514,7 +1520,7 @@
     </row>
     <row r="30" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B30" s="34" t="s">
         <v>73</v>
@@ -1526,7 +1532,7 @@
     </row>
     <row r="31" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B31" s="34" t="s">
         <v>44</v>
@@ -1538,7 +1544,7 @@
     </row>
     <row r="32" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B32" s="34" t="s">
         <v>71</v>
@@ -1574,7 +1580,7 @@
     </row>
     <row r="35" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="33" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B35" s="34" t="s">
         <v>107</v>
@@ -1586,7 +1592,7 @@
     </row>
     <row r="36" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B36" s="34" t="s">
         <v>46</v>
@@ -1598,7 +1604,7 @@
     </row>
     <row r="37" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="33" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B37" s="34" t="s">
         <v>69</v>
@@ -1610,7 +1616,7 @@
     </row>
     <row r="38" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>108</v>
@@ -3311,7 +3317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10776,8 +10782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10799,22 +10805,22 @@
         <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>20</v>
@@ -15134,5 +15140,6 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/YXL_통합.xlsx
+++ b/YXL_통합.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjana\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECB5AB6-9FF4-44C5-8686-7BFB99C9BC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AD44BB-4EE2-4EE2-9EB9-B79E986AF560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="16470" windowHeight="13455" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="누적기여도" sheetId="13" r:id="rId1"/>
@@ -383,6 +383,24 @@
     <t>하쥬빈</t>
   </si>
   <si>
+    <t>직급전(11.5)</t>
+  </si>
+  <si>
+    <t>1회차(11.11)</t>
+  </si>
+  <si>
+    <t>2회차(11.17)</t>
+  </si>
+  <si>
+    <t>3회차(11.21)</t>
+  </si>
+  <si>
+    <t>4회차(11.26)</t>
+  </si>
+  <si>
+    <t>5회차(11.28)</t>
+  </si>
+  <si>
     <t>순위</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -424,30 +442,6 @@
   </si>
   <si>
     <t>37</t>
-  </si>
-  <si>
-    <t>직급전</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1회차</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2회차</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3회차</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4회차</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5회차</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1170,16 +1164,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1367,7 +1361,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C17" s="35">
         <v>4562135</v>
@@ -1508,7 +1502,7 @@
     </row>
     <row r="29" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B29" s="34" t="s">
         <v>68</v>
@@ -1520,7 +1514,7 @@
     </row>
     <row r="30" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B30" s="34" t="s">
         <v>73</v>
@@ -1532,7 +1526,7 @@
     </row>
     <row r="31" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B31" s="34" t="s">
         <v>44</v>
@@ -1544,7 +1538,7 @@
     </row>
     <row r="32" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B32" s="34" t="s">
         <v>71</v>
@@ -1580,7 +1574,7 @@
     </row>
     <row r="35" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="33" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B35" s="34" t="s">
         <v>107</v>
@@ -1592,7 +1586,7 @@
     </row>
     <row r="36" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B36" s="34" t="s">
         <v>46</v>
@@ -1604,7 +1598,7 @@
     </row>
     <row r="37" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="33" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B37" s="34" t="s">
         <v>69</v>
@@ -1616,7 +1610,7 @@
     </row>
     <row r="38" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>108</v>
@@ -3317,7 +3311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10782,8 +10776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10805,22 +10799,22 @@
         <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>20</v>
@@ -15140,6 +15134,5 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>